--- a/CR - Cost Report/1_BOM/EL/Connector use.xlsx
+++ b/CR - Cost Report/1_BOM/EL/Connector use.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thilv\Desktop\EPSA\STUF-2020\CR - Cost Report\1_BOM\EL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8668ABD7-49FE-4C96-B38F-D94074241E19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6A2D5C6-D91E-4A21-81A4-ED41D69515E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-165" windowWidth="29040" windowHeight="15840" xr2:uid="{12939A52-38A6-4C31-B733-72E659E90326}"/>
   </bookViews>
@@ -684,10 +684,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E27EAA6E-F0CB-4E23-AA36-E74D829C256E}">
-  <dimension ref="A1:P34"/>
+  <dimension ref="A1:P41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="M31" sqref="M31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1315,21 +1315,39 @@
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" s="4" t="s">
         <v>28</v>
       </c>
     </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G36"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G37"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G38"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G39"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G40"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G41"/>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="G7:H17">
-    <sortCondition ref="G7:G17"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="G30:G34">
+    <sortCondition ref="G30:G34"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
